--- a/target/classes/exceltestdata.xlsx
+++ b/target/classes/exceltestdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boby2\Documents\Kabir_Maven_Java_Practice\interview\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E57E3-B622-43C3-AA05-727259DB8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD506F2-7CBB-4D03-8558-12D26B10822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>TotalPrice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Test_Case_Name</t>
   </si>
   <si>
     <t>SequenceID</t>
-  </si>
-  <si>
-    <t>Mohammad</t>
-  </si>
-  <si>
-    <t>kabir</t>
   </si>
   <si>
     <t>APIMethodName</t>
@@ -87,6 +72,52 @@
   <si>
     <t>[$.lastname],[EQUALS],[Dam]
 [$.firstname],[EQUALS],[Van]</t>
+  </si>
+  <si>
+    <t>[$.additionalneeds],[EQUALS],[Rib Eye Steak]</t>
+  </si>
+  <si>
+    <t>{
+  "firstname": "Van",
+  "lastname": "Dam",
+  "totalprice": 1000,
+  "depositpaid": true,
+  "bookingdates": {
+    "checkin": "2018-01-01",
+    "checkout": "2019-01-01"
+  },
+  "additionalneeds": "Rib Eye Steak"
+}</t>
+  </si>
+  <si>
+    <t>GetToken</t>
+  </si>
+  <si>
+    <t>{
+  "username": "admin",
+  "password": "password123"
+}</t>
+  </si>
+  <si>
+    <t>[$.token],[KEYEXISTS],[TRUE],[1]</t>
+  </si>
+  <si>
+    <t>PatchBooking</t>
+  </si>
+  <si>
+    <t>{
+  "lastname": "Kabir"
+}</t>
+  </si>
+  <si>
+    <t>[$.lastname],[EQUALS],[Kabir]</t>
+  </si>
+  <si>
+    <t>[$.lastname],[EQUALS],[Kabir]
+[$.additionalneeds],[EQUALS],[Rib Eye Steak]</t>
+  </si>
+  <si>
+    <t>DeleteBooking</t>
   </si>
 </sst>
 </file>
@@ -407,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,96 +449,173 @@
     <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="5" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
+      <c r="F2">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9">
         <v>201</v>
       </c>
     </row>
